--- a/Code/Results/Cases/Case_4_72/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_72/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6.982724135413036</v>
+        <v>2.869551889135607</v>
       </c>
       <c r="C2">
-        <v>2.237183513295463</v>
+        <v>0.7881453474972204</v>
       </c>
       <c r="D2">
-        <v>0.2119319713331578</v>
+        <v>0.07747209130812394</v>
       </c>
       <c r="E2">
-        <v>0.04409542380020426</v>
+        <v>0.01810567887071102</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0007516870505566153</v>
+        <v>0.002517548526561747</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>1.790008163799158</v>
+        <v>0.7062854332487376</v>
       </c>
       <c r="N2">
-        <v>3.782855971883208</v>
+        <v>3.017181111994375</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5.960850980557893</v>
+        <v>2.643780808096665</v>
       </c>
       <c r="C3">
-        <v>1.902216943991107</v>
+        <v>0.7127389179150896</v>
       </c>
       <c r="D3">
-        <v>0.1804733168425514</v>
+        <v>0.07037155588928101</v>
       </c>
       <c r="E3">
-        <v>0.03761692610530787</v>
+        <v>0.01670266240005702</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0007685625701979324</v>
+        <v>0.002526523239203815</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -501,10 +501,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>1.526275220706125</v>
+        <v>0.6478379289009126</v>
       </c>
       <c r="N3">
-        <v>3.476805942702839</v>
+        <v>2.926055007387163</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5.358120637128081</v>
+        <v>2.507240872029115</v>
       </c>
       <c r="C4">
-        <v>1.704829922381691</v>
+        <v>0.6669794408791745</v>
       </c>
       <c r="D4">
-        <v>0.1619111308799717</v>
+        <v>0.06606562063427646</v>
       </c>
       <c r="E4">
-        <v>0.03379963235943073</v>
+        <v>0.01585501730446737</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0007789979119692859</v>
+        <v>0.002532304644592566</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -548,10 +548,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>1.370766507864289</v>
+        <v>0.6124627174711605</v>
       </c>
       <c r="N4">
-        <v>3.296143092230039</v>
+        <v>2.870474595041543</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5.117633877694573</v>
+        <v>2.452109964015222</v>
       </c>
       <c r="C5">
-        <v>1.626103817868284</v>
+        <v>0.6484630465233749</v>
       </c>
       <c r="D5">
-        <v>0.1545029315874302</v>
+        <v>0.06432400157021334</v>
       </c>
       <c r="E5">
-        <v>0.03227745309683172</v>
+        <v>0.0155129683418096</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0007832791972692955</v>
+        <v>0.002534729055474287</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>1.30872811626557</v>
+        <v>0.5981720084138402</v>
       </c>
       <c r="N5">
-        <v>3.224049324588975</v>
+        <v>2.847913872052231</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5.077982802564179</v>
+        <v>2.442985933878219</v>
       </c>
       <c r="C6">
-        <v>1.613124997440764</v>
+        <v>0.6453961814277704</v>
       </c>
       <c r="D6">
-        <v>0.153281354328044</v>
+        <v>0.06403558435978596</v>
       </c>
       <c r="E6">
-        <v>0.03202653081626572</v>
+        <v>0.01545637222508134</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0007839921100899039</v>
+        <v>0.002535135770275143</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>1.298499774214193</v>
+        <v>0.5958064881790506</v>
       </c>
       <c r="N6">
-        <v>3.212162700112572</v>
+        <v>2.844172906754267</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5.354857875761866</v>
+        <v>2.506495309620107</v>
       </c>
       <c r="C7">
-        <v>1.703761715454164</v>
+        <v>0.6667291984668395</v>
       </c>
       <c r="D7">
-        <v>0.1618106297625559</v>
+        <v>0.06604208015932045</v>
       </c>
       <c r="E7">
-        <v>0.03377897688510423</v>
+        <v>0.0158503907849088</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.0007790555218509572</v>
+        <v>0.002532337063485515</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>1.369924780790257</v>
+        <v>0.6122694868005709</v>
       </c>
       <c r="N7">
-        <v>3.295164981989046</v>
+        <v>2.870169980002913</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6.624544029488277</v>
+        <v>2.791264862275852</v>
       </c>
       <c r="C8">
-        <v>2.119722591650145</v>
+        <v>0.7620300433865737</v>
       </c>
       <c r="D8">
-        <v>0.2009066375197648</v>
+        <v>0.07501238048971004</v>
       </c>
       <c r="E8">
-        <v>0.04182374465667849</v>
+        <v>0.01761899075170348</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.0007574971740009287</v>
+        <v>0.002520586978306554</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -736,10 +736,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>1.697553695126501</v>
+        <v>0.6860242326414436</v>
       </c>
       <c r="N8">
-        <v>3.675630486884927</v>
+        <v>2.985680913108126</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>9.371496042898571</v>
+        <v>3.366905249674232</v>
       </c>
       <c r="C9">
-        <v>3.022261594922327</v>
+        <v>0.9534375110640099</v>
       </c>
       <c r="D9">
-        <v>0.2854420024643787</v>
+        <v>0.09305169667854329</v>
       </c>
       <c r="E9">
-        <v>0.05926536588703613</v>
+        <v>0.02120157692914404</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.0007152277611309377</v>
+        <v>0.002499679712230204</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>2.406990404989415</v>
+        <v>0.8348962041147274</v>
       </c>
       <c r="N9">
-        <v>4.495866984482234</v>
+        <v>3.215366421890849</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>11.65969889746043</v>
+        <v>3.801306469134943</v>
       </c>
       <c r="C10">
-        <v>3.77763951842195</v>
+        <v>1.097167145946855</v>
       </c>
       <c r="D10">
-        <v>0.3558487290461869</v>
+        <v>0.1066103141328654</v>
       </c>
       <c r="E10">
-        <v>0.07381849741034685</v>
+        <v>0.02391041044955244</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.0006831061508056447</v>
+        <v>0.002485599561745577</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>2.998685151910294</v>
+        <v>0.947119284627945</v>
       </c>
       <c r="N10">
-        <v>5.174192827161335</v>
+        <v>3.386374647276256</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>12.79717502844665</v>
+        <v>4.001642273623133</v>
       </c>
       <c r="C11">
-        <v>4.15456006084861</v>
+        <v>1.163305008333737</v>
       </c>
       <c r="D11">
-        <v>0.3908509297792051</v>
+        <v>0.112851873727962</v>
       </c>
       <c r="E11">
-        <v>0.08105661040533008</v>
+        <v>0.02516095789603412</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.0006679043765658757</v>
+        <v>0.002479467634781252</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>3.293085958294441</v>
+        <v>0.9988498725304709</v>
       </c>
       <c r="N11">
-        <v>5.509306195244903</v>
+        <v>3.464733961479567</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>13.24651369152184</v>
+        <v>4.07791393930745</v>
       </c>
       <c r="C12">
-        <v>4.30373701187176</v>
+        <v>1.188464475656758</v>
       </c>
       <c r="D12">
-        <v>0.4046787484637662</v>
+        <v>0.115226558998188</v>
       </c>
       <c r="E12">
-        <v>0.08391601881995214</v>
+        <v>0.02563726421093548</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.0006620185872831788</v>
+        <v>0.00247718456380948</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>3.409433580688486</v>
+        <v>1.018541415603778</v>
       </c>
       <c r="N12">
-        <v>5.641268046491518</v>
+        <v>3.49449384462622</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>13.14881773617901</v>
+        <v>4.061469010885162</v>
       </c>
       <c r="C13">
-        <v>4.271288749174744</v>
+        <v>1.183040744761058</v>
       </c>
       <c r="D13">
-        <v>0.40167223608168</v>
+        <v>0.114714623601742</v>
       </c>
       <c r="E13">
-        <v>0.08329432604241305</v>
+        <v>0.02553455879157696</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.000663292844350849</v>
+        <v>0.002477674536618965</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>3.384134655903623</v>
+        <v>1.014295866210361</v>
       </c>
       <c r="N13">
-        <v>5.612597451059628</v>
+        <v>3.488080568590874</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>12.83373590928272</v>
+        <v>4.007908896077538</v>
       </c>
       <c r="C14">
-        <v>4.166691892706467</v>
+        <v>1.165372563261144</v>
       </c>
       <c r="D14">
-        <v>0.391976024267052</v>
+        <v>0.1130470140164732</v>
       </c>
       <c r="E14">
-        <v>0.08128926995401287</v>
+        <v>0.02520008805672447</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.0006674230561327243</v>
+        <v>0.002479279026311379</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1018,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>3.302551629778591</v>
+        <v>1.000467831031045</v>
       </c>
       <c r="N14">
-        <v>5.520052469180143</v>
+        <v>3.467180551776153</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>12.64333285792009</v>
+        <v>3.97515553784126</v>
       </c>
       <c r="C15">
-        <v>4.103523005442241</v>
+        <v>1.15456538330227</v>
       </c>
       <c r="D15">
-        <v>0.386116753987622</v>
+        <v>0.1120270225440976</v>
       </c>
       <c r="E15">
-        <v>0.08007761912975297</v>
+        <v>0.02499557702413568</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.0006699344891044268</v>
+        <v>0.002480266886231911</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>3.253258034837827</v>
+        <v>0.9920112188313794</v>
       </c>
       <c r="N15">
-        <v>5.464070247667848</v>
+        <v>3.454390168825853</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>11.58766925460657</v>
+        <v>3.788270324525115</v>
       </c>
       <c r="C16">
-        <v>3.753804638497968</v>
+        <v>1.092860572635232</v>
       </c>
       <c r="D16">
-        <v>0.3536323366962222</v>
+        <v>0.1062039425433738</v>
       </c>
       <c r="E16">
-        <v>0.07336019543621219</v>
+        <v>0.02382906251026995</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.0006840843304074884</v>
+        <v>0.002486005766998334</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>2.980048549991949</v>
+        <v>0.9437526328458716</v>
       </c>
       <c r="N16">
-        <v>5.152922745502053</v>
+        <v>3.381265546880428</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>10.96762739960081</v>
+        <v>3.674332095824184</v>
       </c>
       <c r="C17">
-        <v>3.548788127005423</v>
+        <v>1.055204134061853</v>
       </c>
       <c r="D17">
-        <v>0.3345536455906597</v>
+        <v>0.1026509265787752</v>
       </c>
       <c r="E17">
-        <v>0.06941544019737123</v>
+        <v>0.02311821252105162</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.0006925870422088656</v>
+        <v>0.002489596124630005</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>2.819651404410862</v>
+        <v>0.9143248455871742</v>
       </c>
       <c r="N17">
-        <v>4.969594135602392</v>
+        <v>3.336554943252764</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>10.61972403752259</v>
+        <v>3.609053233652617</v>
       </c>
       <c r="C18">
-        <v>3.433874980188079</v>
+        <v>1.033615797803463</v>
       </c>
       <c r="D18">
-        <v>0.3238488697411697</v>
+        <v>0.1006142268706611</v>
       </c>
       <c r="E18">
-        <v>0.06720241400968519</v>
+        <v>0.02271106404266021</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.0006974254882987237</v>
+        <v>0.002491686938720609</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1206,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>2.72967607026726</v>
+        <v>0.8974624618338822</v>
       </c>
       <c r="N18">
-        <v>4.8665515231489</v>
+        <v>3.310891607785436</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>10.5033121395735</v>
+        <v>3.586994284856246</v>
       </c>
       <c r="C19">
-        <v>3.395442837326414</v>
+        <v>1.026318312700482</v>
       </c>
       <c r="D19">
-        <v>0.3202669695138098</v>
+        <v>0.09992580419061881</v>
       </c>
       <c r="E19">
-        <v>0.06646198292338212</v>
+        <v>0.02257350122972923</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.0006990558581176072</v>
+        <v>0.002492399282281819</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1253,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>2.69957308656501</v>
+        <v>0.891763952811985</v>
       </c>
       <c r="N19">
-        <v>4.832044814968782</v>
+        <v>3.302211386980161</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>11.03269985968211</v>
+        <v>3.686434460515329</v>
       </c>
       <c r="C20">
-        <v>3.570291213640814</v>
+        <v>1.059205371225119</v>
       </c>
       <c r="D20">
-        <v>0.3365559001676814</v>
+        <v>0.103028433039384</v>
       </c>
       <c r="E20">
-        <v>0.06982940030150431</v>
+        <v>0.02319370549036037</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.0006916875753787813</v>
+        <v>0.002489211263837092</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>2.836482373612242</v>
+        <v>0.9174508584419669</v>
       </c>
       <c r="N20">
-        <v>4.988853454953016</v>
+        <v>3.34130893707183</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>12.92573136035162</v>
+        <v>4.02362956571767</v>
       </c>
       <c r="C21">
-        <v>4.197223075952479</v>
+        <v>1.170558980494604</v>
       </c>
       <c r="D21">
-        <v>0.394807031695791</v>
+        <v>0.113536524541189</v>
       </c>
       <c r="E21">
-        <v>0.08187469407141634</v>
+        <v>0.02529825456740653</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.0006662138615077898</v>
+        <v>0.002478806694296386</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>3.326370236370877</v>
+        <v>1.004526647100874</v>
       </c>
       <c r="N21">
-        <v>5.547085464066072</v>
+        <v>3.473316990924786</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>14.27511290817426</v>
+        <v>4.246397398232943</v>
       </c>
       <c r="C22">
-        <v>4.645855190236318</v>
+        <v>1.244005267075295</v>
       </c>
       <c r="D22">
-        <v>0.4363346475486622</v>
+        <v>0.12046937991893</v>
       </c>
       <c r="E22">
-        <v>0.09046103191462151</v>
+        <v>0.0266897937315882</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.0006487767830603995</v>
+        <v>0.002472233620587653</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>3.675877758106253</v>
+        <v>1.062034150326113</v>
       </c>
       <c r="N22">
-        <v>5.942409040060284</v>
+        <v>3.560101064979676</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>13.54255722948915</v>
+        <v>4.127277436432678</v>
       </c>
       <c r="C23">
-        <v>4.402111535624044</v>
+        <v>1.204742246745127</v>
       </c>
       <c r="D23">
-        <v>0.4137894021784234</v>
+        <v>0.1167630327879294</v>
       </c>
       <c r="E23">
-        <v>0.08579987165062875</v>
+        <v>0.02594558931665958</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.0006581752436742859</v>
+        <v>0.002475721140749749</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1441,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>3.486104023869331</v>
+        <v>1.031285019572749</v>
       </c>
       <c r="N23">
-        <v>5.728075771036742</v>
+        <v>3.513734364879383</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>11.00325424426717</v>
+        <v>3.6809622795829</v>
       </c>
       <c r="C24">
-        <v>3.56056058356188</v>
+        <v>1.057396222815157</v>
       </c>
       <c r="D24">
-        <v>0.3356498692680816</v>
+        <v>0.1028577437942317</v>
       </c>
       <c r="E24">
-        <v>0.0696420801087676</v>
+        <v>0.02315957036670824</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.0006920943765684963</v>
+        <v>0.002489385176310189</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>2.828866203992888</v>
+        <v>0.9160374138105709</v>
       </c>
       <c r="N24">
-        <v>4.980139066739639</v>
+        <v>3.339159527965109</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>8.590972959296948</v>
+        <v>3.20923651614936</v>
       </c>
       <c r="C25">
-        <v>2.765384035728289</v>
+        <v>0.9011373680684187</v>
       </c>
       <c r="D25">
-        <v>0.2614252561893124</v>
+        <v>0.08812033610021786</v>
       </c>
       <c r="E25">
-        <v>0.05430535531360192</v>
+        <v>0.02021943726730058</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.0007267554659357697</v>
+        <v>0.002505109310176496</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1535,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>2.205316451781655</v>
+        <v>0.7941418404794547</v>
       </c>
       <c r="N25">
-        <v>4.263361426075988</v>
+        <v>3.152857768936428</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_72/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_72/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.869551889135607</v>
+        <v>6.98272413541298</v>
       </c>
       <c r="C2">
-        <v>0.7881453474972204</v>
+        <v>2.237183513295633</v>
       </c>
       <c r="D2">
-        <v>0.07747209130812394</v>
+        <v>0.2119319713331436</v>
       </c>
       <c r="E2">
-        <v>0.01810567887071102</v>
+        <v>0.04409542380011899</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.002517548526561747</v>
+        <v>0.0007516870505563279</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.7062854332487376</v>
+        <v>1.7900081637992</v>
       </c>
       <c r="N2">
-        <v>3.017181111994375</v>
+        <v>3.782855971883265</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.643780808096665</v>
+        <v>5.96085098055795</v>
       </c>
       <c r="C3">
-        <v>0.7127389179150896</v>
+        <v>1.902216943991391</v>
       </c>
       <c r="D3">
-        <v>0.07037155588928101</v>
+        <v>0.1804733168427362</v>
       </c>
       <c r="E3">
-        <v>0.01670266240005702</v>
+        <v>0.0376169261053505</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.002526523239203815</v>
+        <v>0.0007685625701954143</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -501,10 +501,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.6478379289009126</v>
+        <v>1.526275220706111</v>
       </c>
       <c r="N3">
-        <v>2.926055007387163</v>
+        <v>3.476805942702839</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.507240872029115</v>
+        <v>5.358120637128081</v>
       </c>
       <c r="C4">
-        <v>0.6669794408791745</v>
+        <v>1.704829922382089</v>
       </c>
       <c r="D4">
-        <v>0.06606562063427646</v>
+        <v>0.1619111308801706</v>
       </c>
       <c r="E4">
-        <v>0.01585501730446737</v>
+        <v>0.03379963235943784</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.002532304644592566</v>
+        <v>0.0007789979119716683</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -548,10 +548,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.6124627174711605</v>
+        <v>1.370766507864275</v>
       </c>
       <c r="N4">
-        <v>2.870474595041543</v>
+        <v>3.296143092230039</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.452109964015222</v>
+        <v>5.117633877694573</v>
       </c>
       <c r="C5">
-        <v>0.6484630465233749</v>
+        <v>1.626103817868625</v>
       </c>
       <c r="D5">
-        <v>0.06432400157021334</v>
+        <v>0.1545029315874586</v>
       </c>
       <c r="E5">
-        <v>0.0155129683418096</v>
+        <v>0.03227745309687968</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.002534729055474287</v>
+        <v>0.0007832791972728512</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.5981720084138402</v>
+        <v>1.30872811626557</v>
       </c>
       <c r="N5">
-        <v>2.847913872052231</v>
+        <v>3.224049324589004</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.442985933878219</v>
+        <v>5.077982802564406</v>
       </c>
       <c r="C6">
-        <v>0.6453961814277704</v>
+        <v>1.613124997440536</v>
       </c>
       <c r="D6">
-        <v>0.06403558435978596</v>
+        <v>0.1532813543282572</v>
       </c>
       <c r="E6">
-        <v>0.01545637222508134</v>
+        <v>0.03202653081627993</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.002535135770275143</v>
+        <v>0.00078399211023236</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.5958064881790506</v>
+        <v>1.298499774214193</v>
       </c>
       <c r="N6">
-        <v>2.844172906754267</v>
+        <v>3.212162700112572</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.506495309620107</v>
+        <v>5.354857875761979</v>
       </c>
       <c r="C7">
-        <v>0.6667291984668395</v>
+        <v>1.703761715453766</v>
       </c>
       <c r="D7">
-        <v>0.06604208015932045</v>
+        <v>0.1618106297625275</v>
       </c>
       <c r="E7">
-        <v>0.0158503907849088</v>
+        <v>0.03377897688501186</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.002532337063485515</v>
+        <v>0.0007790555218559663</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.6122694868005709</v>
+        <v>1.369924780790271</v>
       </c>
       <c r="N7">
-        <v>2.870169980002913</v>
+        <v>3.295164981989046</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.791264862275852</v>
+        <v>6.624544029488504</v>
       </c>
       <c r="C8">
-        <v>0.7620300433865737</v>
+        <v>2.119722591650145</v>
       </c>
       <c r="D8">
-        <v>0.07501238048971004</v>
+        <v>0.2009066375197222</v>
       </c>
       <c r="E8">
-        <v>0.01761899075170348</v>
+        <v>0.04182374465661454</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.002520586978306554</v>
+        <v>0.0007574971739958691</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -736,10 +736,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.6860242326414436</v>
+        <v>1.69755369512653</v>
       </c>
       <c r="N8">
-        <v>2.985680913108126</v>
+        <v>3.675630486884955</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.366905249674232</v>
+        <v>9.371496042898343</v>
       </c>
       <c r="C9">
-        <v>0.9534375110640099</v>
+        <v>3.022261594922725</v>
       </c>
       <c r="D9">
-        <v>0.09305169667854329</v>
+        <v>0.285442002464606</v>
       </c>
       <c r="E9">
-        <v>0.02120157692914404</v>
+        <v>0.05926536588714981</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.002499679712230204</v>
+        <v>0.0007152277613478031</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.8348962041147274</v>
+        <v>2.406990404989443</v>
       </c>
       <c r="N9">
-        <v>3.215366421890849</v>
+        <v>4.495866984482205</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.801306469134943</v>
+        <v>11.65969889746043</v>
       </c>
       <c r="C10">
-        <v>1.097167145946855</v>
+        <v>3.777639518422745</v>
       </c>
       <c r="D10">
-        <v>0.1066103141328654</v>
+        <v>0.3558487290463859</v>
       </c>
       <c r="E10">
-        <v>0.02391041044955244</v>
+        <v>0.07381849741038948</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.002485599561745577</v>
+        <v>0.0006831061506818892</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.947119284627945</v>
+        <v>2.998685151910337</v>
       </c>
       <c r="N10">
-        <v>3.386374647276256</v>
+        <v>5.174192827161335</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.001642273623133</v>
+        <v>12.79717502844665</v>
       </c>
       <c r="C11">
-        <v>1.163305008333737</v>
+        <v>4.154560060849121</v>
       </c>
       <c r="D11">
-        <v>0.112851873727962</v>
+        <v>0.3908509297787219</v>
       </c>
       <c r="E11">
-        <v>0.02516095789603412</v>
+        <v>0.08105661040531942</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.002479467634781252</v>
+        <v>0.0006679043765587115</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.9988498725304709</v>
+        <v>3.293085958294455</v>
       </c>
       <c r="N11">
-        <v>3.464733961479567</v>
+        <v>5.509306195245017</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.07791393930745</v>
+        <v>13.24651369152207</v>
       </c>
       <c r="C12">
-        <v>1.188464475656758</v>
+        <v>4.303737011870453</v>
       </c>
       <c r="D12">
-        <v>0.115226558998188</v>
+        <v>0.404678748463752</v>
       </c>
       <c r="E12">
-        <v>0.02563726421093548</v>
+        <v>0.08391601882000188</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.00247718456380948</v>
+        <v>0.0006620185872544498</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.018541415603778</v>
+        <v>3.409433580688528</v>
       </c>
       <c r="N12">
-        <v>3.49449384462622</v>
+        <v>5.641268046491632</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.061469010885162</v>
+        <v>13.1488177361789</v>
       </c>
       <c r="C13">
-        <v>1.183040744761058</v>
+        <v>4.271288749174346</v>
       </c>
       <c r="D13">
-        <v>0.114714623601742</v>
+        <v>0.4016722360814953</v>
       </c>
       <c r="E13">
-        <v>0.02553455879157696</v>
+        <v>0.08329432604242371</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.002477674536618965</v>
+        <v>0.0006632928447021942</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.014295866210361</v>
+        <v>3.384134655903608</v>
       </c>
       <c r="N13">
-        <v>3.488080568590874</v>
+        <v>5.612597451059514</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.007908896077538</v>
+        <v>12.83373590928261</v>
       </c>
       <c r="C14">
-        <v>1.165372563261144</v>
+        <v>4.16669189270641</v>
       </c>
       <c r="D14">
-        <v>0.1130470140164732</v>
+        <v>0.3919760242668531</v>
       </c>
       <c r="E14">
-        <v>0.02520008805672447</v>
+        <v>0.08128926995394536</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.002479279026311379</v>
+        <v>0.0006674230559139898</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1018,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.000467831031045</v>
+        <v>3.302551629778534</v>
       </c>
       <c r="N14">
-        <v>3.467180551776153</v>
+        <v>5.52005246918003</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.97515553784126</v>
+        <v>12.64333285792009</v>
       </c>
       <c r="C15">
-        <v>1.15456538330227</v>
+        <v>4.103523005441332</v>
       </c>
       <c r="D15">
-        <v>0.1120270225440976</v>
+        <v>0.3861167539878778</v>
       </c>
       <c r="E15">
-        <v>0.02499557702413568</v>
+        <v>0.08007761912971745</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.002480266886231911</v>
+        <v>0.0006699344891214437</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.9920112188313794</v>
+        <v>3.253258034837842</v>
       </c>
       <c r="N15">
-        <v>3.454390168825853</v>
+        <v>5.464070247667905</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.788270324525115</v>
+        <v>11.58766925460714</v>
       </c>
       <c r="C16">
-        <v>1.092860572635232</v>
+        <v>3.753804638498082</v>
       </c>
       <c r="D16">
-        <v>0.1062039425433738</v>
+        <v>0.3536323366961938</v>
       </c>
       <c r="E16">
-        <v>0.02382906251026995</v>
+        <v>0.07336019543616601</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.002486005766998334</v>
+        <v>0.0006840843303977983</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.9437526328458716</v>
+        <v>2.980048549991977</v>
       </c>
       <c r="N16">
-        <v>3.381265546880428</v>
+        <v>5.15292274550211</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.674332095824184</v>
+        <v>10.96762739960093</v>
       </c>
       <c r="C17">
-        <v>1.055204134061853</v>
+        <v>3.548788127005423</v>
       </c>
       <c r="D17">
-        <v>0.1026509265787752</v>
+        <v>0.3345536455909439</v>
       </c>
       <c r="E17">
-        <v>0.02311821252105162</v>
+        <v>0.06941544019742807</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.002489596124630005</v>
+        <v>0.0006925870421179321</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.9143248455871742</v>
+        <v>2.819651404410848</v>
       </c>
       <c r="N17">
-        <v>3.336554943252764</v>
+        <v>4.969594135602392</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.609053233652617</v>
+        <v>10.61972403752236</v>
       </c>
       <c r="C18">
-        <v>1.033615797803463</v>
+        <v>3.433874980186829</v>
       </c>
       <c r="D18">
-        <v>0.1006142268706611</v>
+        <v>0.3238488697409849</v>
       </c>
       <c r="E18">
-        <v>0.02271106404266021</v>
+        <v>0.06720241400973137</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.002491686938720609</v>
+        <v>0.0006974254885360894</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1206,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.8974624618338822</v>
+        <v>2.729676070267203</v>
       </c>
       <c r="N18">
-        <v>3.310891607785436</v>
+        <v>4.866551523148814</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.586994284856246</v>
+        <v>10.50331213957395</v>
       </c>
       <c r="C19">
-        <v>1.026318312700482</v>
+        <v>3.395442837325959</v>
       </c>
       <c r="D19">
-        <v>0.09992580419061881</v>
+        <v>0.3202669695139946</v>
       </c>
       <c r="E19">
-        <v>0.02257350122972923</v>
+        <v>0.06646198292343186</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.002492399282281819</v>
+        <v>0.0006990558580935104</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1253,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.891763952811985</v>
+        <v>2.699573086565067</v>
       </c>
       <c r="N19">
-        <v>3.302211386980161</v>
+        <v>4.832044814968867</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.686434460515329</v>
+        <v>11.03269985968188</v>
       </c>
       <c r="C20">
-        <v>1.059205371225119</v>
+        <v>3.570291213641724</v>
       </c>
       <c r="D20">
-        <v>0.103028433039384</v>
+        <v>0.3365559001675678</v>
       </c>
       <c r="E20">
-        <v>0.02319370549036037</v>
+        <v>0.06982940030135154</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.002489211263837092</v>
+        <v>0.0006916875753816678</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.9174508584419669</v>
+        <v>2.836482373612242</v>
       </c>
       <c r="N20">
-        <v>3.34130893707183</v>
+        <v>4.98885345495296</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.02362956571767</v>
+        <v>12.92573136035139</v>
       </c>
       <c r="C21">
-        <v>1.170558980494604</v>
+        <v>4.197223075952877</v>
       </c>
       <c r="D21">
-        <v>0.113536524541189</v>
+        <v>0.3948070316950805</v>
       </c>
       <c r="E21">
-        <v>0.02529825456740653</v>
+        <v>0.08187469407137726</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.002478806694296386</v>
+        <v>0.0006662138614023186</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.004526647100874</v>
+        <v>3.326370236370863</v>
       </c>
       <c r="N21">
-        <v>3.473316990924786</v>
+        <v>5.547085464066015</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.246397398232943</v>
+        <v>14.27511290817415</v>
       </c>
       <c r="C22">
-        <v>1.244005267075295</v>
+        <v>4.645855190235011</v>
       </c>
       <c r="D22">
-        <v>0.12046937991893</v>
+        <v>0.4363346475487333</v>
       </c>
       <c r="E22">
-        <v>0.0266897937315882</v>
+        <v>0.09046103191456467</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.002472233620587653</v>
+        <v>0.0006487767831981905</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.062034150326113</v>
+        <v>3.675877758106239</v>
       </c>
       <c r="N22">
-        <v>3.560101064979676</v>
+        <v>5.942409040060284</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.127277436432678</v>
+        <v>13.54255722948915</v>
       </c>
       <c r="C23">
-        <v>1.204742246745127</v>
+        <v>4.40211153562359</v>
       </c>
       <c r="D23">
-        <v>0.1167630327879294</v>
+        <v>0.4137894021783808</v>
       </c>
       <c r="E23">
-        <v>0.02594558931665958</v>
+        <v>0.08579987165069625</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.002475721140749749</v>
+        <v>0.0006581752436592368</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1441,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.031285019572749</v>
+        <v>3.486104023869387</v>
       </c>
       <c r="N23">
-        <v>3.513734364879383</v>
+        <v>5.728075771036856</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.6809622795829</v>
+        <v>11.00325424426705</v>
       </c>
       <c r="C24">
-        <v>1.057396222815157</v>
+        <v>3.560560583562278</v>
       </c>
       <c r="D24">
-        <v>0.1028577437942317</v>
+        <v>0.3356498692683374</v>
       </c>
       <c r="E24">
-        <v>0.02315957036670824</v>
+        <v>0.06964208010875339</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.002489385176310189</v>
+        <v>0.0006920943766920591</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.9160374138105709</v>
+        <v>2.828866203992831</v>
       </c>
       <c r="N24">
-        <v>3.339159527965109</v>
+        <v>4.980139066739582</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.20923651614936</v>
+        <v>8.590972959297176</v>
       </c>
       <c r="C25">
-        <v>0.9011373680684187</v>
+        <v>2.765384035728232</v>
       </c>
       <c r="D25">
-        <v>0.08812033610021786</v>
+        <v>0.2614252561890567</v>
       </c>
       <c r="E25">
-        <v>0.02021943726730058</v>
+        <v>0.05430535531355574</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.002505109310176496</v>
+        <v>0.0007267554659288373</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1535,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.7941418404794547</v>
+        <v>2.205316451781698</v>
       </c>
       <c r="N25">
-        <v>3.152857768936428</v>
+        <v>4.263361426075988</v>
       </c>
       <c r="O25">
         <v>0</v>
